--- a/src/staging file/staging_file.xlsx
+++ b/src/staging file/staging_file.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tbiholding-my.sharepoint.com/personal/nilan_bais_croonwolterendros_nl/Documents/Documenten/GitHub/storingsanalyse-generator/src/staging file/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_6FE6AA986E0373582770A03A89591DF67E67FB60" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Backend" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -2970,8 +2976,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3033,15 +3039,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3083,7 +3097,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3115,9 +3129,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3149,6 +3181,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3324,57 +3374,53 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="Y1" sqref="Y1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" zeroHeight="1"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="66.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="66.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="58.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="66.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="21.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="6.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="19.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="23.7109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="13.7109375" style="1" customWidth="1"/>
-    <col min="19" max="19" width="66.7109375" style="1" customWidth="1"/>
-    <col min="20" max="20" width="13.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="66.7109375" style="1" customWidth="1"/>
-    <col min="22" max="22" width="11.7109375" style="1" customWidth="1"/>
-    <col min="23" max="23" width="23.7109375" style="1" customWidth="1"/>
-    <col min="24" max="24" width="66.7109375" style="1" customWidth="1"/>
-    <col min="25" max="25" width="53.7109375" style="1" customWidth="1"/>
-    <col min="26" max="26" width="29.7109375" style="1" customWidth="1"/>
-    <col min="27" max="27" width="18.7109375" style="1" customWidth="1"/>
-    <col min="28" max="28" width="18.7109375" style="1" customWidth="1"/>
-    <col min="29" max="29" width="18.7109375" style="1" customWidth="1"/>
-    <col min="30" max="30" width="29.7109375" style="1" customWidth="1"/>
-    <col min="31" max="31" width="19.7109375" style="1" customWidth="1"/>
-    <col min="32" max="32" width="19.7109375" style="1" customWidth="1"/>
-    <col min="33" max="33" width="20.7109375" style="1" customWidth="1"/>
-    <col min="34" max="34" width="19.7109375" style="1" customWidth="1"/>
-    <col min="35" max="35" width="21.7109375" style="1" customWidth="1"/>
-    <col min="36" max="36" width="13.7109375" style="1" customWidth="1"/>
-    <col min="37" max="37" width="13.7109375" style="1" customWidth="1"/>
-    <col min="38" max="38" width="10.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="66.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="66.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="58.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="66.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="21.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="6.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="19.6640625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="10.6640625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="23.6640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="13.6640625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="66.6640625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="13.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="66.6640625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="11.6640625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="23.6640625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="66.6640625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="53.6640625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="29.6640625" style="1" customWidth="1"/>
+    <col min="27" max="29" width="18.6640625" style="1" customWidth="1"/>
+    <col min="30" max="30" width="29.6640625" style="1" customWidth="1"/>
+    <col min="31" max="32" width="19.6640625" style="1" customWidth="1"/>
+    <col min="33" max="33" width="20.6640625" style="1" customWidth="1"/>
+    <col min="34" max="34" width="19.6640625" style="1" customWidth="1"/>
+    <col min="35" max="35" width="21.6640625" style="1" customWidth="1"/>
+    <col min="36" max="37" width="13.6640625" style="1" customWidth="1"/>
+    <col min="38" max="38" width="10.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:38" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3490,7 +3536,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="30" customHeight="1">
+    <row r="2" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>38</v>
       </c>
@@ -3528,7 +3574,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="3" spans="1:38" ht="30" customHeight="1">
+    <row r="3" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>39</v>
       </c>
@@ -3563,7 +3609,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="4" spans="1:38" ht="30" customHeight="1">
+    <row r="4" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>40</v>
       </c>
@@ -3601,7 +3647,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="5" spans="1:38" ht="30" customHeight="1">
+    <row r="5" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>41</v>
       </c>
@@ -3636,7 +3682,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="30" customHeight="1">
+    <row r="6" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>42</v>
       </c>
@@ -3683,7 +3729,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="7" spans="1:38" ht="30" customHeight="1">
+    <row r="7" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>43</v>
       </c>
@@ -3736,7 +3782,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="8" spans="1:38" ht="30" customHeight="1">
+    <row r="8" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>44</v>
       </c>
@@ -3771,7 +3817,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="9" spans="1:38" ht="30" customHeight="1">
+    <row r="9" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>45</v>
       </c>
@@ -3806,7 +3852,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="10" spans="1:38" ht="30" customHeight="1">
+    <row r="10" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>46</v>
       </c>
@@ -3841,7 +3887,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="11" spans="1:38" ht="30" customHeight="1">
+    <row r="11" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>47</v>
       </c>
@@ -3879,7 +3925,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="12" spans="1:38" ht="30" customHeight="1">
+    <row r="12" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>48</v>
       </c>
@@ -3926,7 +3972,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="13" spans="1:38" ht="30" customHeight="1">
+    <row r="13" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>49</v>
       </c>
@@ -3961,7 +4007,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="14" spans="1:38" ht="30" customHeight="1">
+    <row r="14" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>50</v>
       </c>
@@ -4014,7 +4060,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="15" spans="1:38" ht="30" customHeight="1">
+    <row r="15" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>51</v>
       </c>
@@ -4049,7 +4095,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="16" spans="1:38" ht="30" customHeight="1">
+    <row r="16" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>52</v>
       </c>
@@ -4105,7 +4151,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="17" spans="1:38" ht="30" customHeight="1">
+    <row r="17" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>53</v>
       </c>
@@ -4152,7 +4198,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="18" spans="1:38" ht="30" customHeight="1">
+    <row r="18" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>54</v>
       </c>
@@ -4199,7 +4245,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="19" spans="1:38" ht="30" customHeight="1">
+    <row r="19" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>55</v>
       </c>
@@ -4246,7 +4292,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="20" spans="1:38" ht="30" customHeight="1">
+    <row r="20" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>56</v>
       </c>
@@ -4299,7 +4345,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="21" spans="1:38" ht="30" customHeight="1">
+    <row r="21" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>57</v>
       </c>
@@ -4352,7 +4398,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="22" spans="1:38" ht="30" customHeight="1">
+    <row r="22" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>58</v>
       </c>
@@ -4399,7 +4445,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="23" spans="1:38" ht="30" customHeight="1">
+    <row r="23" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>59</v>
       </c>
@@ -4446,7 +4492,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="24" spans="1:38" ht="30" customHeight="1">
+    <row r="24" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>60</v>
       </c>
@@ -4481,7 +4527,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="25" spans="1:38" ht="30" customHeight="1">
+    <row r="25" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>61</v>
       </c>
@@ -4531,7 +4577,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="26" spans="1:38" ht="30" customHeight="1">
+    <row r="26" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>62</v>
       </c>
@@ -4566,7 +4612,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="27" spans="1:38" ht="30" customHeight="1">
+    <row r="27" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>63</v>
       </c>
@@ -4592,7 +4638,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="28" spans="1:38" ht="30" customHeight="1">
+    <row r="28" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>64</v>
       </c>
@@ -4639,7 +4685,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="29" spans="1:38" ht="30" customHeight="1">
+    <row r="29" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>65</v>
       </c>
@@ -4677,7 +4723,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="30" spans="1:38" ht="30" customHeight="1">
+    <row r="30" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>66</v>
       </c>
@@ -4730,7 +4776,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="31" spans="1:38" ht="30" customHeight="1">
+    <row r="31" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>67</v>
       </c>
@@ -4765,7 +4811,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="32" spans="1:38" ht="30" customHeight="1">
+    <row r="32" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>68</v>
       </c>
@@ -4812,7 +4858,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="33" spans="1:38" ht="30" customHeight="1">
+    <row r="33" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>69</v>
       </c>
@@ -4847,7 +4893,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="34" spans="1:38" ht="30" customHeight="1">
+    <row r="34" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>70</v>
       </c>
@@ -4894,7 +4940,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="35" spans="1:38" ht="30" customHeight="1">
+    <row r="35" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>71</v>
       </c>
@@ -4932,7 +4978,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="36" spans="1:38" ht="30" customHeight="1">
+    <row r="36" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>72</v>
       </c>
@@ -4970,7 +5016,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="37" spans="1:38" ht="30" customHeight="1">
+    <row r="37" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>73</v>
       </c>
@@ -5020,7 +5066,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="38" spans="1:38" ht="30" customHeight="1">
+    <row r="38" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>74</v>
       </c>
@@ -5043,7 +5089,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="39" spans="1:38" ht="30" customHeight="1">
+    <row r="39" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>75</v>
       </c>
@@ -5096,7 +5142,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="40" spans="1:38" ht="30" customHeight="1">
+    <row r="40" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,7 +5177,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="41" spans="1:38" ht="30" customHeight="1">
+    <row r="41" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>77</v>
       </c>
@@ -5184,7 +5230,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="42" spans="1:38" ht="30" customHeight="1">
+    <row r="42" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>78</v>
       </c>
@@ -5219,7 +5265,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="43" spans="1:38" ht="30" customHeight="1">
+    <row r="43" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>79</v>
       </c>
@@ -5266,7 +5312,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="44" spans="1:38" ht="30" customHeight="1">
+    <row r="44" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>80</v>
       </c>
@@ -5301,7 +5347,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="45" spans="1:38" ht="30" customHeight="1">
+    <row r="45" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>81</v>
       </c>
@@ -5336,7 +5382,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="46" spans="1:38" ht="30" customHeight="1">
+    <row r="46" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>82</v>
       </c>
@@ -5389,7 +5435,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="47" spans="1:38" ht="30" customHeight="1">
+    <row r="47" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>83</v>
       </c>
@@ -5430,7 +5476,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="48" spans="1:38" ht="30" customHeight="1">
+    <row r="48" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>84</v>
       </c>
@@ -5468,7 +5514,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="49" spans="1:38" ht="30" customHeight="1">
+    <row r="49" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>85</v>
       </c>
@@ -5503,7 +5549,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="50" spans="1:38" ht="30" customHeight="1">
+    <row r="50" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>86</v>
       </c>
@@ -5538,7 +5584,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="51" spans="1:38" ht="30" customHeight="1">
+    <row r="51" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>87</v>
       </c>
@@ -5573,7 +5619,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="52" spans="1:38" ht="30" customHeight="1">
+    <row r="52" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>88</v>
       </c>
@@ -5608,7 +5654,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="53" spans="1:38" ht="30" customHeight="1">
+    <row r="53" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>89</v>
       </c>
@@ -5643,7 +5689,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="54" spans="1:38" ht="30" customHeight="1">
+    <row r="54" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>90</v>
       </c>
@@ -5678,7 +5724,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="55" spans="1:38" ht="30" customHeight="1">
+    <row r="55" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>91</v>
       </c>
@@ -5713,7 +5759,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="56" spans="1:38" ht="30" customHeight="1">
+    <row r="56" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>92</v>
       </c>
@@ -5760,7 +5806,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="57" spans="1:38" ht="30" customHeight="1">
+    <row r="57" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>93</v>
       </c>
@@ -5795,7 +5841,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="58" spans="1:38" ht="30" customHeight="1">
+    <row r="58" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>94</v>
       </c>
@@ -5830,7 +5876,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="59" spans="1:38" ht="30" customHeight="1">
+    <row r="59" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>95</v>
       </c>
@@ -5865,7 +5911,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="60" spans="1:38" ht="30" customHeight="1">
+    <row r="60" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>96</v>
       </c>
@@ -5912,7 +5958,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="61" spans="1:38" ht="30" customHeight="1">
+    <row r="61" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>97</v>
       </c>
@@ -5959,7 +6005,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="62" spans="1:38" ht="30" customHeight="1">
+    <row r="62" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>98</v>
       </c>
@@ -6009,7 +6055,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="63" spans="1:38" ht="30" customHeight="1">
+    <row r="63" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>99</v>
       </c>
@@ -6044,7 +6090,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="64" spans="1:38" ht="30" customHeight="1">
+    <row r="64" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>100</v>
       </c>
@@ -6079,7 +6125,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="65" spans="1:38" ht="30" customHeight="1">
+    <row r="65" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>101</v>
       </c>
@@ -6129,7 +6175,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="66" spans="1:38" ht="30" customHeight="1">
+    <row r="66" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>102</v>
       </c>
@@ -6164,7 +6210,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="67" spans="1:38" ht="30" customHeight="1">
+    <row r="67" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>103</v>
       </c>
@@ -6217,7 +6263,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="68" spans="1:38" ht="30" customHeight="1">
+    <row r="68" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>104</v>
       </c>
@@ -6252,7 +6298,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="69" spans="1:38" ht="30" customHeight="1">
+    <row r="69" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>105</v>
       </c>
@@ -6305,7 +6351,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="70" spans="1:38" ht="30" customHeight="1">
+    <row r="70" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>106</v>
       </c>
@@ -6340,7 +6386,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="71" spans="1:38" ht="30" customHeight="1">
+    <row r="71" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>107</v>
       </c>
@@ -6387,7 +6433,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="72" spans="1:38" ht="30" customHeight="1">
+    <row r="72" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>108</v>
       </c>
@@ -6422,7 +6468,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="73" spans="1:38" ht="30" customHeight="1">
+    <row r="73" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>109</v>
       </c>
@@ -6475,7 +6521,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="74" spans="1:38" ht="30" customHeight="1">
+    <row r="74" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>110</v>
       </c>
@@ -6522,7 +6568,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="75" spans="1:38" ht="30" customHeight="1">
+    <row r="75" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>111</v>
       </c>
@@ -6560,7 +6606,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="76" spans="1:38" ht="30" customHeight="1">
+    <row r="76" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>112</v>
       </c>
@@ -6607,7 +6653,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="77" spans="1:38" ht="30" customHeight="1">
+    <row r="77" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>113</v>
       </c>
@@ -6654,7 +6700,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="78" spans="1:38" ht="30" customHeight="1">
+    <row r="78" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>114</v>
       </c>
@@ -6707,7 +6753,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="79" spans="1:38" ht="30" customHeight="1">
+    <row r="79" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>115</v>
       </c>
@@ -6748,7 +6794,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="80" spans="1:38" ht="30" customHeight="1">
+    <row r="80" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>116</v>
       </c>
@@ -6795,7 +6841,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="81" spans="1:38" ht="30" customHeight="1">
+    <row r="81" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>117</v>
       </c>
@@ -6848,7 +6894,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="82" spans="1:38" ht="30" customHeight="1">
+    <row r="82" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>118</v>
       </c>
@@ -6883,7 +6929,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="83" spans="1:38" ht="30" customHeight="1">
+    <row r="83" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>119</v>
       </c>
@@ -6930,7 +6976,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="84" spans="1:38" ht="30" customHeight="1">
+    <row r="84" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>120</v>
       </c>
@@ -6965,7 +7011,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="85" spans="1:38" ht="30" customHeight="1">
+    <row r="85" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>121</v>
       </c>
@@ -7000,7 +7046,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="86" spans="1:38" ht="30" customHeight="1">
+    <row r="86" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>122</v>
       </c>
@@ -7035,7 +7081,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="87" spans="1:38" ht="30" customHeight="1">
+    <row r="87" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>123</v>
       </c>
@@ -7070,7 +7116,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="88" spans="1:38" ht="30" customHeight="1">
+    <row r="88" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>124</v>
       </c>
@@ -7105,7 +7151,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="89" spans="1:38" ht="30" customHeight="1">
+    <row r="89" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>125</v>
       </c>
@@ -7152,7 +7198,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="90" spans="1:38" ht="30" customHeight="1">
+    <row r="90" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>126</v>
       </c>
@@ -7202,7 +7248,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="91" spans="1:38" ht="30" customHeight="1">
+    <row r="91" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>127</v>
       </c>
@@ -7237,7 +7283,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="92" spans="1:38" ht="30" customHeight="1">
+    <row r="92" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>128</v>
       </c>
@@ -7290,7 +7336,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="93" spans="1:38" ht="30" customHeight="1">
+    <row r="93" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>129</v>
       </c>
@@ -7325,7 +7371,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="94" spans="1:38" ht="30" customHeight="1">
+    <row r="94" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>130</v>
       </c>
@@ -7360,7 +7406,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="95" spans="1:38" ht="30" customHeight="1">
+    <row r="95" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>131</v>
       </c>
@@ -7395,7 +7441,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="96" spans="1:38" ht="30" customHeight="1">
+    <row r="96" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>132</v>
       </c>
@@ -7430,7 +7476,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="97" spans="1:38" ht="30" customHeight="1">
+    <row r="97" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>133</v>
       </c>
@@ -7483,7 +7529,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="98" spans="1:38" ht="30" customHeight="1">
+    <row r="98" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>134</v>
       </c>
@@ -7518,7 +7564,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="99" spans="1:38" ht="30" customHeight="1">
+    <row r="99" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>135</v>
       </c>
@@ -7565,7 +7611,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="100" spans="1:38" ht="30" customHeight="1">
+    <row r="100" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>136</v>
       </c>
@@ -7601,338 +7647,51 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="99">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y3">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y4">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y5">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y6">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y7">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y8">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y9">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y10">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y11">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y12">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y13">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y14">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y15">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y16">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y17">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y18">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y19">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y20">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y21">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y22">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y23">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y24">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y25">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y26">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y27">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y28">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y29">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y30">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y31">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y32">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y33">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y34">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y35">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y36">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y37">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y38">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y39">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y40">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y41">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y42">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y43">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y44">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y45">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y46">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y47">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y48">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y49">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y50">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y51">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y52">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y53">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y54">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y55">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y56">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y57">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y58">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y59">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y60">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y61">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y62">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y63">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y64">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y65">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y66">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y67">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y68">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y69">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y70">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y71">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y72">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y73">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y74">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y75">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y76">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y77">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y78">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y79">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y80">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y81">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y82">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y83">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y84">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y85">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y86">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y87">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y88">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y89">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y90">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y91">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y92">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y93">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y94">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y95">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y96">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y97">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y98">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y99">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y100">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+          <x14:formula1>
+            <xm:f>Backend!$A$1:$A$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>Y2:Y100</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>842</v>
       </c>

--- a/src/staging file/staging_file.xlsx
+++ b/src/staging file/staging_file.xlsx
@@ -1,22 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tbiholding-my.sharepoint.com/personal/nilan_bais_croonwolterendros_nl/Documents/Documenten/GitHub/storingsanalyse-generator/src/staging file/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_6FE6AA986E0373582770A03A89591DF67E67FB60" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Backend" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -74,7 +68,7 @@
     <t>locatie 2 omschrijving</t>
   </si>
   <si>
-    <t>probleemcode</t>
+    <t>probleem code</t>
   </si>
   <si>
     <t>beschrijving probleem</t>
@@ -2976,8 +2970,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3039,23 +3033,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3097,7 +3083,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3129,27 +3115,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3181,24 +3149,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3374,53 +3324,57 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AL100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y1" sqref="Y1"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" zeroHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="66.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="66.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="58.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="66.6640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.6640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="21.6640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="6.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="19.6640625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="10.6640625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="23.6640625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="13.6640625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="66.6640625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="13.6640625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="66.6640625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="11.6640625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="23.6640625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="66.6640625" style="1" customWidth="1"/>
-    <col min="25" max="25" width="53.6640625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="29.6640625" style="1" customWidth="1"/>
-    <col min="27" max="29" width="18.6640625" style="1" customWidth="1"/>
-    <col min="30" max="30" width="29.6640625" style="1" customWidth="1"/>
-    <col min="31" max="32" width="19.6640625" style="1" customWidth="1"/>
-    <col min="33" max="33" width="20.6640625" style="1" customWidth="1"/>
-    <col min="34" max="34" width="19.6640625" style="1" customWidth="1"/>
-    <col min="35" max="35" width="21.6640625" style="1" customWidth="1"/>
-    <col min="36" max="37" width="13.6640625" style="1" customWidth="1"/>
-    <col min="38" max="38" width="10.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="66.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="66.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="58.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="66.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="21.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="6.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="19.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="23.7109375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="66.7109375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="13.7109375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="66.7109375" style="1" customWidth="1"/>
+    <col min="22" max="22" width="11.7109375" style="1" customWidth="1"/>
+    <col min="23" max="23" width="23.7109375" style="1" customWidth="1"/>
+    <col min="24" max="24" width="66.7109375" style="1" customWidth="1"/>
+    <col min="25" max="25" width="53.7109375" style="1" customWidth="1"/>
+    <col min="26" max="26" width="29.7109375" style="1" customWidth="1"/>
+    <col min="27" max="27" width="18.7109375" style="1" customWidth="1"/>
+    <col min="28" max="28" width="18.7109375" style="1" customWidth="1"/>
+    <col min="29" max="29" width="18.7109375" style="1" customWidth="1"/>
+    <col min="30" max="30" width="29.7109375" style="1" customWidth="1"/>
+    <col min="31" max="31" width="19.7109375" style="1" customWidth="1"/>
+    <col min="32" max="32" width="19.7109375" style="1" customWidth="1"/>
+    <col min="33" max="33" width="20.7109375" style="1" customWidth="1"/>
+    <col min="34" max="34" width="19.7109375" style="1" customWidth="1"/>
+    <col min="35" max="35" width="21.7109375" style="1" customWidth="1"/>
+    <col min="36" max="36" width="13.7109375" style="1" customWidth="1"/>
+    <col min="37" max="37" width="13.7109375" style="1" customWidth="1"/>
+    <col min="38" max="38" width="10.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3536,7 +3490,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:38" ht="30" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>38</v>
       </c>
@@ -3574,7 +3528,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="3" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:38" ht="30" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>39</v>
       </c>
@@ -3609,7 +3563,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="4" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38" ht="30" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>40</v>
       </c>
@@ -3647,7 +3601,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="5" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:38" ht="30" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>41</v>
       </c>
@@ -3682,7 +3636,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:38" ht="30" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>42</v>
       </c>
@@ -3729,7 +3683,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="7" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:38" ht="30" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>43</v>
       </c>
@@ -3782,7 +3736,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="8" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:38" ht="30" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>44</v>
       </c>
@@ -3817,7 +3771,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="9" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:38" ht="30" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>45</v>
       </c>
@@ -3852,7 +3806,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="10" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:38" ht="30" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>46</v>
       </c>
@@ -3887,7 +3841,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="11" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:38" ht="30" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>47</v>
       </c>
@@ -3925,7 +3879,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="12" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:38" ht="30" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>48</v>
       </c>
@@ -3972,7 +3926,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="13" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:38" ht="30" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>49</v>
       </c>
@@ -4007,7 +3961,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="14" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:38" ht="30" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>50</v>
       </c>
@@ -4060,7 +4014,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="15" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:38" ht="30" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>51</v>
       </c>
@@ -4095,7 +4049,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="16" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:38" ht="30" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>52</v>
       </c>
@@ -4151,7 +4105,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="17" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:38" ht="30" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>53</v>
       </c>
@@ -4198,7 +4152,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="18" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:38" ht="30" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>54</v>
       </c>
@@ -4245,7 +4199,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="19" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:38" ht="30" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>55</v>
       </c>
@@ -4292,7 +4246,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="20" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:38" ht="30" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>56</v>
       </c>
@@ -4345,7 +4299,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="21" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:38" ht="30" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>57</v>
       </c>
@@ -4398,7 +4352,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="22" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:38" ht="30" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>58</v>
       </c>
@@ -4445,7 +4399,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="23" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:38" ht="30" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>59</v>
       </c>
@@ -4492,7 +4446,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="24" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:38" ht="30" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>60</v>
       </c>
@@ -4527,7 +4481,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="25" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:38" ht="30" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>61</v>
       </c>
@@ -4577,7 +4531,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="26" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:38" ht="30" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>62</v>
       </c>
@@ -4612,7 +4566,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="27" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:38" ht="30" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>63</v>
       </c>
@@ -4638,7 +4592,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="28" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:38" ht="30" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>64</v>
       </c>
@@ -4685,7 +4639,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="29" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:38" ht="30" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>65</v>
       </c>
@@ -4723,7 +4677,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="30" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:38" ht="30" customHeight="1">
       <c r="A30" s="1" t="s">
         <v>66</v>
       </c>
@@ -4776,7 +4730,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="31" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:38" ht="30" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>67</v>
       </c>
@@ -4811,7 +4765,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="32" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:38" ht="30" customHeight="1">
       <c r="A32" s="1" t="s">
         <v>68</v>
       </c>
@@ -4858,7 +4812,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="33" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:38" ht="30" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>69</v>
       </c>
@@ -4893,7 +4847,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="34" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:38" ht="30" customHeight="1">
       <c r="A34" s="1" t="s">
         <v>70</v>
       </c>
@@ -4940,7 +4894,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="35" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:38" ht="30" customHeight="1">
       <c r="A35" s="1" t="s">
         <v>71</v>
       </c>
@@ -4978,7 +4932,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="36" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:38" ht="30" customHeight="1">
       <c r="A36" s="1" t="s">
         <v>72</v>
       </c>
@@ -5016,7 +4970,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="37" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:38" ht="30" customHeight="1">
       <c r="A37" s="1" t="s">
         <v>73</v>
       </c>
@@ -5066,7 +5020,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="38" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:38" ht="30" customHeight="1">
       <c r="A38" s="1" t="s">
         <v>74</v>
       </c>
@@ -5089,7 +5043,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="39" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:38" ht="30" customHeight="1">
       <c r="A39" s="1" t="s">
         <v>75</v>
       </c>
@@ -5142,7 +5096,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="40" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:38" ht="30" customHeight="1">
       <c r="A40" s="1" t="s">
         <v>76</v>
       </c>
@@ -5177,7 +5131,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="41" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:38" ht="30" customHeight="1">
       <c r="A41" s="1" t="s">
         <v>77</v>
       </c>
@@ -5230,7 +5184,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="42" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:38" ht="30" customHeight="1">
       <c r="A42" s="1" t="s">
         <v>78</v>
       </c>
@@ -5265,7 +5219,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="43" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:38" ht="30" customHeight="1">
       <c r="A43" s="1" t="s">
         <v>79</v>
       </c>
@@ -5312,7 +5266,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="44" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:38" ht="30" customHeight="1">
       <c r="A44" s="1" t="s">
         <v>80</v>
       </c>
@@ -5347,7 +5301,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="45" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:38" ht="30" customHeight="1">
       <c r="A45" s="1" t="s">
         <v>81</v>
       </c>
@@ -5382,7 +5336,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="46" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:38" ht="30" customHeight="1">
       <c r="A46" s="1" t="s">
         <v>82</v>
       </c>
@@ -5435,7 +5389,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="47" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:38" ht="30" customHeight="1">
       <c r="A47" s="1" t="s">
         <v>83</v>
       </c>
@@ -5476,7 +5430,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="48" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:38" ht="30" customHeight="1">
       <c r="A48" s="1" t="s">
         <v>84</v>
       </c>
@@ -5514,7 +5468,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="49" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:38" ht="30" customHeight="1">
       <c r="A49" s="1" t="s">
         <v>85</v>
       </c>
@@ -5549,7 +5503,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="50" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:38" ht="30" customHeight="1">
       <c r="A50" s="1" t="s">
         <v>86</v>
       </c>
@@ -5584,7 +5538,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="51" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:38" ht="30" customHeight="1">
       <c r="A51" s="1" t="s">
         <v>87</v>
       </c>
@@ -5619,7 +5573,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="52" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:38" ht="30" customHeight="1">
       <c r="A52" s="1" t="s">
         <v>88</v>
       </c>
@@ -5654,7 +5608,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="53" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:38" ht="30" customHeight="1">
       <c r="A53" s="1" t="s">
         <v>89</v>
       </c>
@@ -5689,7 +5643,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="54" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:38" ht="30" customHeight="1">
       <c r="A54" s="1" t="s">
         <v>90</v>
       </c>
@@ -5724,7 +5678,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="55" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:38" ht="30" customHeight="1">
       <c r="A55" s="1" t="s">
         <v>91</v>
       </c>
@@ -5759,7 +5713,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="56" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:38" ht="30" customHeight="1">
       <c r="A56" s="1" t="s">
         <v>92</v>
       </c>
@@ -5806,7 +5760,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="57" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:38" ht="30" customHeight="1">
       <c r="A57" s="1" t="s">
         <v>93</v>
       </c>
@@ -5841,7 +5795,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="58" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:38" ht="30" customHeight="1">
       <c r="A58" s="1" t="s">
         <v>94</v>
       </c>
@@ -5876,7 +5830,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="59" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:38" ht="30" customHeight="1">
       <c r="A59" s="1" t="s">
         <v>95</v>
       </c>
@@ -5911,7 +5865,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="60" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:38" ht="30" customHeight="1">
       <c r="A60" s="1" t="s">
         <v>96</v>
       </c>
@@ -5958,7 +5912,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="61" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:38" ht="30" customHeight="1">
       <c r="A61" s="1" t="s">
         <v>97</v>
       </c>
@@ -6005,7 +5959,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="62" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:38" ht="30" customHeight="1">
       <c r="A62" s="1" t="s">
         <v>98</v>
       </c>
@@ -6055,7 +6009,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="63" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:38" ht="30" customHeight="1">
       <c r="A63" s="1" t="s">
         <v>99</v>
       </c>
@@ -6090,7 +6044,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="64" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:38" ht="30" customHeight="1">
       <c r="A64" s="1" t="s">
         <v>100</v>
       </c>
@@ -6125,7 +6079,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="65" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:38" ht="30" customHeight="1">
       <c r="A65" s="1" t="s">
         <v>101</v>
       </c>
@@ -6175,7 +6129,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="66" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:38" ht="30" customHeight="1">
       <c r="A66" s="1" t="s">
         <v>102</v>
       </c>
@@ -6210,7 +6164,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="67" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:38" ht="30" customHeight="1">
       <c r="A67" s="1" t="s">
         <v>103</v>
       </c>
@@ -6263,7 +6217,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="68" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:38" ht="30" customHeight="1">
       <c r="A68" s="1" t="s">
         <v>104</v>
       </c>
@@ -6298,7 +6252,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="69" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:38" ht="30" customHeight="1">
       <c r="A69" s="1" t="s">
         <v>105</v>
       </c>
@@ -6351,7 +6305,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="70" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:38" ht="30" customHeight="1">
       <c r="A70" s="1" t="s">
         <v>106</v>
       </c>
@@ -6386,7 +6340,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="71" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:38" ht="30" customHeight="1">
       <c r="A71" s="1" t="s">
         <v>107</v>
       </c>
@@ -6433,7 +6387,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="72" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:38" ht="30" customHeight="1">
       <c r="A72" s="1" t="s">
         <v>108</v>
       </c>
@@ -6468,7 +6422,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="73" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:38" ht="30" customHeight="1">
       <c r="A73" s="1" t="s">
         <v>109</v>
       </c>
@@ -6521,7 +6475,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="74" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:38" ht="30" customHeight="1">
       <c r="A74" s="1" t="s">
         <v>110</v>
       </c>
@@ -6568,7 +6522,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="75" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:38" ht="30" customHeight="1">
       <c r="A75" s="1" t="s">
         <v>111</v>
       </c>
@@ -6606,7 +6560,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="76" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:38" ht="30" customHeight="1">
       <c r="A76" s="1" t="s">
         <v>112</v>
       </c>
@@ -6653,7 +6607,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="77" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:38" ht="30" customHeight="1">
       <c r="A77" s="1" t="s">
         <v>113</v>
       </c>
@@ -6700,7 +6654,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="78" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:38" ht="30" customHeight="1">
       <c r="A78" s="1" t="s">
         <v>114</v>
       </c>
@@ -6753,7 +6707,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="79" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:38" ht="30" customHeight="1">
       <c r="A79" s="1" t="s">
         <v>115</v>
       </c>
@@ -6794,7 +6748,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="80" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:38" ht="30" customHeight="1">
       <c r="A80" s="1" t="s">
         <v>116</v>
       </c>
@@ -6841,7 +6795,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="81" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:38" ht="30" customHeight="1">
       <c r="A81" s="1" t="s">
         <v>117</v>
       </c>
@@ -6894,7 +6848,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="82" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:38" ht="30" customHeight="1">
       <c r="A82" s="1" t="s">
         <v>118</v>
       </c>
@@ -6929,7 +6883,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="83" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:38" ht="30" customHeight="1">
       <c r="A83" s="1" t="s">
         <v>119</v>
       </c>
@@ -6976,7 +6930,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="84" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:38" ht="30" customHeight="1">
       <c r="A84" s="1" t="s">
         <v>120</v>
       </c>
@@ -7011,7 +6965,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="85" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:38" ht="30" customHeight="1">
       <c r="A85" s="1" t="s">
         <v>121</v>
       </c>
@@ -7046,7 +7000,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="86" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:38" ht="30" customHeight="1">
       <c r="A86" s="1" t="s">
         <v>122</v>
       </c>
@@ -7081,7 +7035,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="87" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:38" ht="30" customHeight="1">
       <c r="A87" s="1" t="s">
         <v>123</v>
       </c>
@@ -7116,7 +7070,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="88" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:38" ht="30" customHeight="1">
       <c r="A88" s="1" t="s">
         <v>124</v>
       </c>
@@ -7151,7 +7105,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="89" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:38" ht="30" customHeight="1">
       <c r="A89" s="1" t="s">
         <v>125</v>
       </c>
@@ -7198,7 +7152,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="90" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:38" ht="30" customHeight="1">
       <c r="A90" s="1" t="s">
         <v>126</v>
       </c>
@@ -7248,7 +7202,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="91" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:38" ht="30" customHeight="1">
       <c r="A91" s="1" t="s">
         <v>127</v>
       </c>
@@ -7283,7 +7237,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="92" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:38" ht="30" customHeight="1">
       <c r="A92" s="1" t="s">
         <v>128</v>
       </c>
@@ -7336,7 +7290,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="93" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:38" ht="30" customHeight="1">
       <c r="A93" s="1" t="s">
         <v>129</v>
       </c>
@@ -7371,7 +7325,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="94" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:38" ht="30" customHeight="1">
       <c r="A94" s="1" t="s">
         <v>130</v>
       </c>
@@ -7406,7 +7360,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="95" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:38" ht="30" customHeight="1">
       <c r="A95" s="1" t="s">
         <v>131</v>
       </c>
@@ -7441,7 +7395,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="96" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:38" ht="30" customHeight="1">
       <c r="A96" s="1" t="s">
         <v>132</v>
       </c>
@@ -7476,7 +7430,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="97" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:38" ht="30" customHeight="1">
       <c r="A97" s="1" t="s">
         <v>133</v>
       </c>
@@ -7529,7 +7483,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="98" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:38" ht="30" customHeight="1">
       <c r="A98" s="1" t="s">
         <v>134</v>
       </c>
@@ -7564,7 +7518,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="99" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:38" ht="30" customHeight="1">
       <c r="A99" s="1" t="s">
         <v>135</v>
       </c>
@@ -7611,7 +7565,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="100" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:38" ht="30" customHeight="1">
       <c r="A100" s="1" t="s">
         <v>136</v>
       </c>
@@ -7647,51 +7601,338 @@
       </c>
     </row>
   </sheetData>
+  <dataValidations count="99">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y3">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y4">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y5">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y6">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y7">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y8">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y9">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y10">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y11">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y12">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y13">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y14">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y15">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y16">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y17">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y18">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y19">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y20">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y21">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y22">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y23">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y24">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y25">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y26">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y27">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y28">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y29">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y30">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y31">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y32">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y33">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y34">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y35">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y36">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y37">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y38">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y39">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y40">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y41">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y42">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y43">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y44">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y45">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y46">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y47">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y48">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y49">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y50">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y51">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y52">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y53">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y54">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y55">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y56">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y57">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y58">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y59">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y60">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y61">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y62">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y63">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y64">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y65">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y66">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y67">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y68">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y69">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y70">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y71">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y72">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y73">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y74">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y75">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y76">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y77">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y78">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y79">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y80">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y81">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y82">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y83">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y84">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y85">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y86">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y87">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y88">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y89">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y90">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y91">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y92">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y93">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y94">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y95">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y96">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y97">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y98">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y99">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y100">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
-          <x14:formula1>
-            <xm:f>Backend!$A$1:$A$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>Y2:Y100</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>842</v>
       </c>
